--- a/database_layout.xlsx
+++ b/database_layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/384fa7b039c67c89/Desktop/UMGC/CMSC 495 - Current Trends and Projects in Computer Science/CMSC495_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6583A58-F8B1-4D1B-87D8-B865DCF24B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{A6583A58-F8B1-4D1B-87D8-B865DCF24B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60E03B65-8D98-42F1-A543-E328EBF9F15D}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{0B2AEE67-0EC0-4DEB-8AD5-D2248CCEC005}"/>
+    <workbookView xWindow="-28920" yWindow="3450" windowWidth="29040" windowHeight="15720" xr2:uid="{0B2AEE67-0EC0-4DEB-8AD5-D2248CCEC005}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -79,24 +79,6 @@
     <t>Events</t>
   </si>
   <si>
-    <t>event1</t>
-  </si>
-  <si>
-    <t>event2</t>
-  </si>
-  <si>
-    <t>event3</t>
-  </si>
-  <si>
-    <t>event4</t>
-  </si>
-  <si>
-    <t>event5</t>
-  </si>
-  <si>
-    <t>event6</t>
-  </si>
-  <si>
     <t>event7</t>
   </si>
   <si>
@@ -137,6 +119,24 @@
   </si>
   <si>
     <t>User Login</t>
+  </si>
+  <si>
+    <t>qb_event</t>
+  </si>
+  <si>
+    <t>hb_rb_event</t>
+  </si>
+  <si>
+    <t>wr_event</t>
+  </si>
+  <si>
+    <t>te_event</t>
+  </si>
+  <si>
+    <t>cb_db_event</t>
+  </si>
+  <si>
+    <t>lb_event</t>
   </si>
 </sst>
 </file>
@@ -193,13 +193,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E60C279-473F-4CC4-B54B-FEB6E504A44D}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,6 +524,7 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
@@ -532,121 +532,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="U2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="V2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="X2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -656,6 +656,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -663,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76465257-9B98-430C-8BDC-BDC481B5B19D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -673,21 +674,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -709,17 +710,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
